--- a/resAConserver/résultats_horaires24.xlsx
+++ b/resAConserver/résultats_horaires24.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27200" windowHeight="16560" tabRatio="730" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="25600" yWindow="-5600" windowWidth="35100" windowHeight="21120" tabRatio="730" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="resultats_9h_24h" sheetId="54" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="190">
   <si>
     <t>Maximisation du gain 2006-2015 pour EURUSD</t>
   </si>
@@ -610,7 +610,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -748,6 +748,22 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1223,7 +1239,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1266,8 +1282,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1291,12 +1313,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1325,6 +1341,12 @@
     <xf numFmtId="10" fontId="18" fillId="38" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1343,23 +1365,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="48">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1390,6 +1422,12 @@
     <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Lien hypertexte" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Remarque" xfId="15" builtinId="10" customBuiltin="1"/>
@@ -1876,11 +1914,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1833774168"/>
-        <c:axId val="1823179064"/>
+        <c:axId val="2076554536"/>
+        <c:axId val="2076107576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1833774168"/>
+        <c:axId val="2076554536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1922,7 +1960,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1823179064"/>
+        <c:crossAx val="2076107576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1930,7 +1968,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1823179064"/>
+        <c:axId val="2076107576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1980,7 +2018,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833774168"/>
+        <c:crossAx val="2076554536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2223,22 +2261,22 @@
                   <c:v>21674.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14702.0</c:v>
+                  <c:v>23750.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14810.0</c:v>
+                  <c:v>21959.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14478.0</c:v>
+                  <c:v>9751.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11313.0</c:v>
+                  <c:v>22729.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13994.0</c:v>
+                  <c:v>21980.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13354.0</c:v>
+                  <c:v>23000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2500,11 +2538,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1827441848"/>
-        <c:axId val="1827445368"/>
+        <c:axId val="2074483608"/>
+        <c:axId val="2074487128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1827441848"/>
+        <c:axId val="2074483608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2546,7 +2584,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1827445368"/>
+        <c:crossAx val="2074487128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2554,7 +2592,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1827445368"/>
+        <c:axId val="2074487128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2604,7 +2642,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1827441848"/>
+        <c:crossAx val="2074483608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2847,22 +2885,22 @@
                   <c:v>17568.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23750.0</c:v>
+                  <c:v>14279.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21959.0</c:v>
+                  <c:v>16559.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9751.0</c:v>
+                  <c:v>15686.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22729.0</c:v>
+                  <c:v>16545.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21980.0</c:v>
+                  <c:v>13962.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23000.0</c:v>
+                  <c:v>15745.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3124,11 +3162,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1829157720"/>
-        <c:axId val="1829712200"/>
+        <c:axId val="2064434744"/>
+        <c:axId val="2064606296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1829157720"/>
+        <c:axId val="2064434744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3170,7 +3208,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1829712200"/>
+        <c:crossAx val="2064606296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3178,7 +3216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1829712200"/>
+        <c:axId val="2064606296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3228,7 +3266,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1829157720"/>
+        <c:crossAx val="2064434744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3738,11 +3776,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1826937752"/>
-        <c:axId val="1826941272"/>
+        <c:axId val="2075438792"/>
+        <c:axId val="2075442312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1826937752"/>
+        <c:axId val="2075438792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3784,7 +3822,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1826941272"/>
+        <c:crossAx val="2075442312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3792,7 +3830,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1826941272"/>
+        <c:axId val="2075442312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3842,7 +3880,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1826937752"/>
+        <c:crossAx val="2075438792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4374,11 +4412,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1826984776"/>
-        <c:axId val="1826988296"/>
+        <c:axId val="2075434136"/>
+        <c:axId val="2075430472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1826984776"/>
+        <c:axId val="2075434136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4420,7 +4458,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1826988296"/>
+        <c:crossAx val="2075430472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4428,7 +4466,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1826988296"/>
+        <c:axId val="2075430472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4478,7 +4516,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1826984776"/>
+        <c:crossAx val="2075434136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5010,11 +5048,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1861086984"/>
-        <c:axId val="1853713496"/>
+        <c:axId val="2073271992"/>
+        <c:axId val="2073267384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1861086984"/>
+        <c:axId val="2073271992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5056,7 +5094,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1853713496"/>
+        <c:crossAx val="2073267384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5064,7 +5102,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1853713496"/>
+        <c:axId val="2073267384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5114,7 +5152,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1861086984"/>
+        <c:crossAx val="2073271992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5514,11 +5552,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1825970632"/>
-        <c:axId val="1825974152"/>
+        <c:axId val="2076485768"/>
+        <c:axId val="2076482104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1825970632"/>
+        <c:axId val="2076485768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5560,7 +5598,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1825974152"/>
+        <c:crossAx val="2076482104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5568,7 +5606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1825974152"/>
+        <c:axId val="2076482104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5618,7 +5656,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1825970632"/>
+        <c:crossAx val="2076485768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5676,3737 +5714,6 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9541,16 +5848,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9893,7 +6200,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -50540,8 +46847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N132"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O121" sqref="O121"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -54217,8 +50524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="M61" sqref="M61:N61"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -54230,144 +50537,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
-      <c r="A1" s="27"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="14"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="12"/>
     </row>
     <row r="2" spans="1:50">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="14"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="12"/>
     </row>
     <row r="3" spans="1:50">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="14"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="12"/>
     </row>
     <row r="4" spans="1:50">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="14"/>
-      <c r="AG4" s="14"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
       <c r="AX4" t="s">
         <v>130</v>
       </c>
@@ -54383,7 +50690,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="14"/>
+      <c r="K5" s="12"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -54394,18 +50701,18 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="15"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="13"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
@@ -54433,7 +50740,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="14"/>
+      <c r="K6" s="12"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -54444,18 +50751,18 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="15"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="13"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
@@ -54489,7 +50796,7 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="14"/>
+      <c r="K7" s="12"/>
       <c r="L7" s="1"/>
       <c r="M7" s="21" t="s">
         <v>4</v>
@@ -54506,8 +50813,8 @@
       </c>
       <c r="T7" s="22"/>
       <c r="U7" s="8"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="13"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="11"/>
       <c r="X7" s="21" t="s">
         <v>4</v>
       </c>
@@ -54522,8 +50829,8 @@
         <v>23</v>
       </c>
       <c r="AE7" s="22"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="16"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="14"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
@@ -54551,7 +50858,7 @@
       <c r="H8" s="23"/>
       <c r="I8" s="24"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="14"/>
+      <c r="K8" s="12"/>
       <c r="L8" s="1"/>
       <c r="M8" s="23"/>
       <c r="N8" s="24"/>
@@ -54562,8 +50869,8 @@
       <c r="S8" s="23"/>
       <c r="T8" s="24"/>
       <c r="U8" s="8"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="13"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="11"/>
       <c r="X8" s="23"/>
       <c r="Y8" s="24"/>
       <c r="Z8" s="1"/>
@@ -54572,8 +50879,8 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="23"/>
       <c r="AE8" s="24"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="16"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="14"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
@@ -54607,7 +50914,7 @@
       </c>
       <c r="I9" s="26"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="14"/>
+      <c r="K9" s="12"/>
       <c r="L9" s="1"/>
       <c r="M9" s="25" t="s">
         <v>40</v>
@@ -54624,8 +50931,8 @@
       </c>
       <c r="T9" s="26"/>
       <c r="U9" s="8"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="13"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="11"/>
       <c r="X9" s="25" t="s">
         <v>46</v>
       </c>
@@ -54640,8 +50947,8 @@
         <v>48</v>
       </c>
       <c r="AE9" s="26"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="16"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="14"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
@@ -54684,7 +50991,7 @@
         <v>4096</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="14"/>
+      <c r="K10" s="12"/>
       <c r="L10" s="1"/>
       <c r="M10" s="2" t="s">
         <v>31</v>
@@ -54707,8 +51014,8 @@
         <v>3594</v>
       </c>
       <c r="U10" s="8"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="13"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="11"/>
       <c r="X10" s="2" t="s">
         <v>31</v>
       </c>
@@ -54729,8 +51036,8 @@
       <c r="AE10" s="2">
         <v>-6187</v>
       </c>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="16"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="14"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
@@ -54773,7 +51080,7 @@
         <v>5774</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="14"/>
+      <c r="K11" s="12"/>
       <c r="L11" s="1"/>
       <c r="M11" s="4" t="s">
         <v>32</v>
@@ -54796,8 +51103,8 @@
         <v>5064</v>
       </c>
       <c r="U11" s="8"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="13"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="11"/>
       <c r="X11" s="4" t="s">
         <v>32</v>
       </c>
@@ -54818,8 +51125,8 @@
       <c r="AE11" s="3">
         <v>-7141</v>
       </c>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="16"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="14"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
@@ -54862,7 +51169,7 @@
         <v>5924</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="14"/>
+      <c r="K12" s="12"/>
       <c r="L12" s="1"/>
       <c r="M12" s="4" t="s">
         <v>33</v>
@@ -54885,8 +51192,8 @@
         <v>8039</v>
       </c>
       <c r="U12" s="8"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="13"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="11"/>
       <c r="X12" s="4" t="s">
         <v>33</v>
       </c>
@@ -54907,8 +51214,8 @@
       <c r="AE12" s="3">
         <v>-9294</v>
       </c>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="16"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="14"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
@@ -54951,7 +51258,7 @@
         <v>2810</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="14"/>
+      <c r="K13" s="12"/>
       <c r="L13" s="1"/>
       <c r="M13" s="4" t="s">
         <v>34</v>
@@ -54974,8 +51281,8 @@
         <v>12536</v>
       </c>
       <c r="U13" s="8"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="13"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="11"/>
       <c r="X13" s="4" t="s">
         <v>34</v>
       </c>
@@ -54996,8 +51303,8 @@
       <c r="AE13" s="3">
         <v>-10191</v>
       </c>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="16"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="14"/>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
@@ -55040,7 +51347,7 @@
         <v>11290</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="14"/>
+      <c r="K14" s="12"/>
       <c r="L14" s="1"/>
       <c r="M14" s="4" t="s">
         <v>35</v>
@@ -55063,8 +51370,8 @@
         <v>11247</v>
       </c>
       <c r="U14" s="8"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="13"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="11"/>
       <c r="X14" s="4" t="s">
         <v>35</v>
       </c>
@@ -55085,8 +51392,8 @@
       <c r="AE14" s="3">
         <v>-9747</v>
       </c>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="16"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="14"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
@@ -55129,7 +51436,7 @@
         <v>8753</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="14"/>
+      <c r="K15" s="12"/>
       <c r="L15" s="1"/>
       <c r="M15" s="4" t="s">
         <v>36</v>
@@ -55152,8 +51459,8 @@
         <v>16330</v>
       </c>
       <c r="U15" s="8"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="13"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="11"/>
       <c r="X15" s="4" t="s">
         <v>36</v>
       </c>
@@ -55174,8 +51481,8 @@
       <c r="AE15" s="3">
         <v>-10060</v>
       </c>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="16"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="14"/>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
@@ -55218,7 +51525,7 @@
         <v>12432</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="14"/>
+      <c r="K16" s="12"/>
       <c r="L16" s="1"/>
       <c r="M16" s="4" t="s">
         <v>37</v>
@@ -55234,15 +51541,15 @@
         <v>1852</v>
       </c>
       <c r="R16" s="1"/>
-      <c r="S16" s="4" t="s">
+      <c r="S16" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T16" s="32">
         <v>18474</v>
       </c>
       <c r="U16" s="8"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="13"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="11"/>
       <c r="X16" s="4" t="s">
         <v>37</v>
       </c>
@@ -55263,8 +51570,8 @@
       <c r="AE16" s="3">
         <v>-8607</v>
       </c>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="16"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="14"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
@@ -55307,12 +51614,12 @@
         <v>6295</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="14"/>
+      <c r="K17" s="12"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="30" t="s">
+      <c r="M17" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="N17" s="31">
+      <c r="N17" s="20">
         <v>21474</v>
       </c>
       <c r="O17" s="1"/>
@@ -55330,8 +51637,8 @@
         <v>15335</v>
       </c>
       <c r="U17" s="8"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="13"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="11"/>
       <c r="X17" s="4" t="s">
         <v>38</v>
       </c>
@@ -55352,8 +51659,8 @@
       <c r="AE17" s="3">
         <v>-9956</v>
       </c>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="16"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="14"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
@@ -55396,7 +51703,7 @@
         <v>9327</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="14"/>
+      <c r="K18" s="12"/>
       <c r="L18" s="1"/>
       <c r="M18" s="4" t="s">
         <v>30</v>
@@ -55405,10 +51712,10 @@
         <v>17049</v>
       </c>
       <c r="O18" s="1"/>
-      <c r="P18" s="30" t="s">
+      <c r="P18" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="Q18" s="31">
+      <c r="Q18" s="34">
         <v>21674</v>
       </c>
       <c r="R18" s="1"/>
@@ -55419,8 +51726,8 @@
         <v>17568</v>
       </c>
       <c r="U18" s="1"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="12"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="10"/>
       <c r="X18" s="4" t="s">
         <v>30</v>
       </c>
@@ -55441,8 +51748,8 @@
       <c r="AE18" s="3">
         <v>-9985</v>
       </c>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="15"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="13"/>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
@@ -55470,7 +51777,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="14"/>
+      <c r="K19" s="12"/>
       <c r="L19" s="1"/>
       <c r="M19" s="4" t="s">
         <v>131</v>
@@ -55479,24 +51786,24 @@
         <v>17002</v>
       </c>
       <c r="O19" s="1"/>
-      <c r="P19" s="4" t="s">
+      <c r="P19" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="Q19" s="4">
-        <f>resultats_9h_19h!N$35</f>
-        <v>14702</v>
-      </c>
-      <c r="R19" s="1"/>
-      <c r="S19" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="T19" s="30">
+      <c r="Q19" s="31">
         <f>resultats_9h_19h!N$53</f>
         <v>23750</v>
       </c>
+      <c r="R19" s="1"/>
+      <c r="S19" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="T19" s="9">
+        <f>resultats_9h_19h!N$71</f>
+        <v>14279</v>
+      </c>
       <c r="U19" s="1"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="12"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="10"/>
       <c r="X19" s="4" t="s">
         <v>131</v>
       </c>
@@ -55511,8 +51818,8 @@
         <v>131</v>
       </c>
       <c r="AE19" s="4"/>
-      <c r="AF19" s="12"/>
-      <c r="AG19" s="15"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="13"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
@@ -55540,7 +51847,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="14"/>
+      <c r="K20" s="12"/>
       <c r="L20" s="1"/>
       <c r="M20" s="4" t="s">
         <v>132</v>
@@ -55553,20 +51860,20 @@
         <v>132</v>
       </c>
       <c r="Q20" s="4">
-        <f>resultats_9h_20h!N$35</f>
-        <v>14810</v>
+        <f>resultats_9h_20h!N$53</f>
+        <v>21959</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="4" t="s">
         <v>132</v>
       </c>
       <c r="T20" s="4">
-        <f>resultats_9h_20h!N$53</f>
-        <v>21959</v>
+        <f>resultats_9h_20h!N$71</f>
+        <v>16559</v>
       </c>
       <c r="U20" s="1"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="12"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="10"/>
       <c r="X20" s="4" t="s">
         <v>132</v>
       </c>
@@ -55581,8 +51888,8 @@
         <v>132</v>
       </c>
       <c r="AE20" s="4"/>
-      <c r="AF20" s="12"/>
-      <c r="AG20" s="15"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="13"/>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
@@ -55610,7 +51917,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="14"/>
+      <c r="K21" s="12"/>
       <c r="L21" s="1"/>
       <c r="M21" s="4" t="s">
         <v>133</v>
@@ -55623,20 +51930,20 @@
         <v>133</v>
       </c>
       <c r="Q21" s="4">
-        <f>resultats_9h_21h!N$35</f>
-        <v>14478</v>
+        <f>resultats_9h_21h!N$53</f>
+        <v>9751</v>
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="4" t="s">
         <v>133</v>
       </c>
       <c r="T21" s="4">
-        <f>resultats_9h_21h!N$53</f>
-        <v>9751</v>
+        <f>resultats_9h_21h!N$71</f>
+        <v>15686</v>
       </c>
       <c r="U21" s="8"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="13"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="11"/>
       <c r="X21" s="4" t="s">
         <v>133</v>
       </c>
@@ -55651,8 +51958,8 @@
         <v>133</v>
       </c>
       <c r="AE21" s="4"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="16"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="14"/>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
@@ -55686,7 +51993,7 @@
       </c>
       <c r="I22" s="22"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="14"/>
+      <c r="K22" s="12"/>
       <c r="L22" s="1"/>
       <c r="M22" s="4" t="s">
         <v>134</v>
@@ -55699,20 +52006,20 @@
         <v>134</v>
       </c>
       <c r="Q22" s="4">
-        <f>resultats_9h_22h!N$35</f>
-        <v>11313</v>
+        <f>resultats_9h_22h!N$53</f>
+        <v>22729</v>
       </c>
       <c r="R22" s="1"/>
       <c r="S22" s="4" t="s">
         <v>134</v>
       </c>
       <c r="T22" s="4">
-        <f>resultats_9h_22h!N$53</f>
-        <v>22729</v>
+        <f>resultats_9h_22h!N$71</f>
+        <v>16545</v>
       </c>
       <c r="U22" s="8"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="13"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="11"/>
       <c r="X22" s="4" t="s">
         <v>134</v>
       </c>
@@ -55727,8 +52034,8 @@
         <v>134</v>
       </c>
       <c r="AE22" s="4"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="16"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="14"/>
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
@@ -55756,7 +52063,7 @@
       <c r="H23" s="23"/>
       <c r="I23" s="24"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="14"/>
+      <c r="K23" s="12"/>
       <c r="L23" s="1"/>
       <c r="M23" s="4" t="s">
         <v>135</v>
@@ -55769,20 +52076,20 @@
         <v>135</v>
       </c>
       <c r="Q23" s="4">
-        <f>resultats_9h_23h!N$35</f>
-        <v>13994</v>
+        <f>resultats_9h_23h!N$53</f>
+        <v>21980</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="4" t="s">
         <v>135</v>
       </c>
       <c r="T23" s="4">
-        <f>resultats_9h_23h!N$53</f>
-        <v>21980</v>
+        <f>resultats_9h_23h!N$71</f>
+        <v>13962</v>
       </c>
       <c r="U23" s="8"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="13"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="11"/>
       <c r="X23" s="4" t="s">
         <v>135</v>
       </c>
@@ -55797,8 +52104,8 @@
         <v>135</v>
       </c>
       <c r="AE23" s="4"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="16"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="14"/>
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
@@ -55832,7 +52139,7 @@
       </c>
       <c r="I24" s="26"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="14"/>
+      <c r="K24" s="12"/>
       <c r="L24" s="1"/>
       <c r="M24" s="5" t="s">
         <v>136</v>
@@ -55845,20 +52152,20 @@
         <v>136</v>
       </c>
       <c r="Q24" s="5">
-        <f>resultats_9h_24h!N$35</f>
-        <v>13354</v>
+        <f>resultats_9h_24h!N$53</f>
+        <v>23000</v>
       </c>
       <c r="R24" s="1"/>
       <c r="S24" s="5" t="s">
         <v>136</v>
       </c>
       <c r="T24" s="5">
-        <f>resultats_9h_24h!N$53</f>
-        <v>23000</v>
+        <f>resultats_9h_24h!N$71</f>
+        <v>15745</v>
       </c>
       <c r="U24" s="8"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="13"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="11"/>
       <c r="X24" s="5" t="s">
         <v>136</v>
       </c>
@@ -55873,8 +52180,8 @@
         <v>136</v>
       </c>
       <c r="AE24" s="5"/>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="16"/>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="14"/>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
@@ -55917,7 +52224,7 @@
         <v>-1100</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="14"/>
+      <c r="K25" s="12"/>
       <c r="L25" s="1"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
@@ -55928,8 +52235,8 @@
       <c r="S25" s="8"/>
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="13"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="11"/>
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
       <c r="Z25" s="1"/>
@@ -55938,8 +52245,8 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="8"/>
       <c r="AE25" s="8"/>
-      <c r="AF25" s="13"/>
-      <c r="AG25" s="16"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="14"/>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
@@ -55982,7 +52289,7 @@
         <v>106</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="14"/>
+      <c r="K26" s="12"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -55993,8 +52300,8 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="8"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="13"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="11"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
@@ -56003,8 +52310,8 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="16"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="14"/>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
@@ -56047,7 +52354,7 @@
         <v>422</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="14"/>
+      <c r="K27" s="12"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -56058,8 +52365,8 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="8"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="13"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="11"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
@@ -56068,8 +52375,8 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
-      <c r="AF27" s="13"/>
-      <c r="AG27" s="16"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="14"/>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
@@ -56112,7 +52419,7 @@
         <v>-290</v>
       </c>
       <c r="J28" s="1"/>
-      <c r="K28" s="14"/>
+      <c r="K28" s="12"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -56123,8 +52430,8 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="8"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="13"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="11"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
@@ -56133,8 +52440,8 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="16"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="14"/>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
@@ -56177,7 +52484,7 @@
         <v>-7697</v>
       </c>
       <c r="J29" s="1"/>
-      <c r="K29" s="14"/>
+      <c r="K29" s="12"/>
       <c r="L29" s="1"/>
       <c r="M29" s="21" t="s">
         <v>19</v>
@@ -56194,8 +52501,8 @@
       </c>
       <c r="T29" s="22"/>
       <c r="U29" s="8"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="13"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="11"/>
       <c r="X29" s="21" t="s">
         <v>19</v>
       </c>
@@ -56210,8 +52517,8 @@
         <v>27</v>
       </c>
       <c r="AE29" s="22"/>
-      <c r="AF29" s="13"/>
-      <c r="AG29" s="16"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="14"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
@@ -56254,7 +52561,7 @@
         <v>-3177</v>
       </c>
       <c r="J30" s="1"/>
-      <c r="K30" s="14"/>
+      <c r="K30" s="12"/>
       <c r="L30" s="1"/>
       <c r="M30" s="23"/>
       <c r="N30" s="24"/>
@@ -56265,8 +52572,8 @@
       <c r="S30" s="23"/>
       <c r="T30" s="24"/>
       <c r="U30" s="8"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="13"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="11"/>
       <c r="X30" s="23"/>
       <c r="Y30" s="24"/>
       <c r="Z30" s="1"/>
@@ -56275,8 +52582,8 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="23"/>
       <c r="AE30" s="24"/>
-      <c r="AF30" s="13"/>
-      <c r="AG30" s="16"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="14"/>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
@@ -56319,7 +52626,7 @@
         <v>399</v>
       </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="14"/>
+      <c r="K31" s="12"/>
       <c r="L31" s="1"/>
       <c r="M31" s="25" t="s">
         <v>43</v>
@@ -56336,8 +52643,8 @@
       </c>
       <c r="T31" s="26"/>
       <c r="U31" s="8"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="13"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="11"/>
       <c r="X31" s="25" t="s">
         <v>49</v>
       </c>
@@ -56352,8 +52659,8 @@
         <v>51</v>
       </c>
       <c r="AE31" s="26"/>
-      <c r="AF31" s="13"/>
-      <c r="AG31" s="16"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="14"/>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
@@ -56396,7 +52703,7 @@
         <v>2335</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="14"/>
+      <c r="K32" s="12"/>
       <c r="L32" s="1"/>
       <c r="M32" s="2" t="s">
         <v>31</v>
@@ -56419,8 +52726,8 @@
         <v>-1556</v>
       </c>
       <c r="U32" s="1"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="12"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="10"/>
       <c r="X32" s="2" t="s">
         <v>31</v>
       </c>
@@ -56441,8 +52748,8 @@
       <c r="AE32" s="2">
         <v>-5655</v>
       </c>
-      <c r="AF32" s="12"/>
-      <c r="AG32" s="15"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="13"/>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
@@ -56485,7 +52792,7 @@
         <v>2223</v>
       </c>
       <c r="J33" s="1"/>
-      <c r="K33" s="14"/>
+      <c r="K33" s="12"/>
       <c r="L33" s="1"/>
       <c r="M33" s="4" t="s">
         <v>32</v>
@@ -56508,8 +52815,8 @@
         <v>-679</v>
       </c>
       <c r="U33" s="1"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="12"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="10"/>
       <c r="X33" s="4" t="s">
         <v>32</v>
       </c>
@@ -56530,8 +52837,8 @@
       <c r="AE33" s="3">
         <v>-3600</v>
       </c>
-      <c r="AF33" s="12"/>
-      <c r="AG33" s="15"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="13"/>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
@@ -56559,7 +52866,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="14"/>
+      <c r="K34" s="12"/>
       <c r="L34" s="1"/>
       <c r="M34" s="4" t="s">
         <v>33</v>
@@ -56578,12 +52885,12 @@
       <c r="S34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="T34" s="11">
+      <c r="T34" s="9">
         <v>-1029</v>
       </c>
       <c r="U34" s="1"/>
-      <c r="V34" s="15"/>
-      <c r="W34" s="12"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="10"/>
       <c r="X34" s="4" t="s">
         <v>33</v>
       </c>
@@ -56604,8 +52911,8 @@
       <c r="AE34" s="3">
         <v>-2905</v>
       </c>
-      <c r="AF34" s="12"/>
-      <c r="AG34" s="15"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="13"/>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
@@ -56633,7 +52940,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="14"/>
+      <c r="K35" s="12"/>
       <c r="L35" s="1"/>
       <c r="M35" s="4" t="s">
         <v>34</v>
@@ -56656,8 +52963,8 @@
         <v>-7182</v>
       </c>
       <c r="U35" s="1"/>
-      <c r="V35" s="15"/>
-      <c r="W35" s="12"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="10"/>
       <c r="X35" s="4" t="s">
         <v>34</v>
       </c>
@@ -56678,8 +52985,8 @@
       <c r="AE35" s="3">
         <v>-2479</v>
       </c>
-      <c r="AF35" s="12"/>
-      <c r="AG35" s="15"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="13"/>
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
@@ -56707,7 +53014,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="14"/>
+      <c r="K36" s="12"/>
       <c r="L36" s="1"/>
       <c r="M36" s="4" t="s">
         <v>35</v>
@@ -56730,8 +53037,8 @@
         <v>-14723</v>
       </c>
       <c r="U36" s="1"/>
-      <c r="V36" s="15"/>
-      <c r="W36" s="12"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="10"/>
       <c r="X36" s="4" t="s">
         <v>35</v>
       </c>
@@ -56752,8 +53059,8 @@
       <c r="AE36" s="3">
         <v>241</v>
       </c>
-      <c r="AF36" s="12"/>
-      <c r="AG36" s="15"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="13"/>
       <c r="AH36" s="1"/>
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
@@ -56783,7 +53090,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="14"/>
+      <c r="K37" s="12"/>
       <c r="L37" s="1"/>
       <c r="M37" s="4" t="s">
         <v>36</v>
@@ -56806,8 +53113,8 @@
         <v>-7789</v>
       </c>
       <c r="U37" s="1"/>
-      <c r="V37" s="15"/>
-      <c r="W37" s="12"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="10"/>
       <c r="X37" s="4" t="s">
         <v>36</v>
       </c>
@@ -56828,8 +53135,8 @@
       <c r="AE37" s="3">
         <v>-4791</v>
       </c>
-      <c r="AF37" s="12"/>
-      <c r="AG37" s="15"/>
+      <c r="AF37" s="10"/>
+      <c r="AG37" s="13"/>
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
@@ -56857,7 +53164,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="14"/>
+      <c r="K38" s="12"/>
       <c r="L38" s="1"/>
       <c r="M38" s="4" t="s">
         <v>37</v>
@@ -56880,8 +53187,8 @@
         <v>236</v>
       </c>
       <c r="U38" s="1"/>
-      <c r="V38" s="15"/>
-      <c r="W38" s="12"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="10"/>
       <c r="X38" s="4" t="s">
         <v>37</v>
       </c>
@@ -56902,8 +53209,8 @@
       <c r="AE38" s="3">
         <v>-8197</v>
       </c>
-      <c r="AF38" s="12"/>
-      <c r="AG38" s="15"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="13"/>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
@@ -56933,7 +53240,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="14"/>
+      <c r="K39" s="12"/>
       <c r="L39" s="1"/>
       <c r="M39" s="4" t="s">
         <v>38</v>
@@ -56956,8 +53263,8 @@
         <v>6544</v>
       </c>
       <c r="U39" s="1"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="12"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="10"/>
       <c r="X39" s="4" t="s">
         <v>38</v>
       </c>
@@ -56978,8 +53285,8 @@
       <c r="AE39" s="3">
         <v>-8984</v>
       </c>
-      <c r="AF39" s="12"/>
-      <c r="AG39" s="15"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="13"/>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
@@ -57009,19 +53316,19 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="14"/>
+      <c r="K40" s="12"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="30" t="s">
+      <c r="M40" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="N40" s="31">
+      <c r="N40" s="20">
         <v>17746</v>
       </c>
       <c r="O40" s="1"/>
-      <c r="P40" s="30" t="s">
+      <c r="P40" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="Q40" s="31">
+      <c r="Q40" s="20">
         <v>20825</v>
       </c>
       <c r="R40" s="1"/>
@@ -57032,8 +53339,8 @@
         <v>13138</v>
       </c>
       <c r="U40" s="1"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="12"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="10"/>
       <c r="X40" s="4" t="s">
         <v>30</v>
       </c>
@@ -57054,8 +53361,8 @@
       <c r="AE40" s="3">
         <v>-79</v>
       </c>
-      <c r="AF40" s="12"/>
-      <c r="AG40" s="15"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="13"/>
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
@@ -57085,7 +53392,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="14"/>
+      <c r="K41" s="12"/>
       <c r="L41" s="1"/>
       <c r="M41" s="4" t="s">
         <v>131</v>
@@ -57102,16 +53409,16 @@
         <v>20348</v>
       </c>
       <c r="R41" s="1"/>
-      <c r="S41" s="30" t="s">
+      <c r="S41" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="T41" s="30">
+      <c r="T41" s="19">
         <f>resultats_9h_19h!N107</f>
         <v>16933</v>
       </c>
       <c r="U41" s="1"/>
-      <c r="V41" s="15"/>
-      <c r="W41" s="12"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="10"/>
       <c r="X41" s="4" t="s">
         <v>131</v>
       </c>
@@ -57126,8 +53433,8 @@
         <v>131</v>
       </c>
       <c r="AE41" s="4"/>
-      <c r="AF41" s="12"/>
-      <c r="AG41" s="15"/>
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="13"/>
       <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
@@ -57157,7 +53464,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="14"/>
+      <c r="K42" s="12"/>
       <c r="L42" s="1"/>
       <c r="M42" s="4" t="s">
         <v>132</v>
@@ -57182,8 +53489,8 @@
         <v>15938</v>
       </c>
       <c r="U42" s="1"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="12"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="10"/>
       <c r="X42" s="4" t="s">
         <v>132</v>
       </c>
@@ -57198,8 +53505,8 @@
         <v>132</v>
       </c>
       <c r="AE42" s="4"/>
-      <c r="AF42" s="12"/>
-      <c r="AG42" s="15"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="13"/>
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
@@ -57229,7 +53536,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="14"/>
+      <c r="K43" s="12"/>
       <c r="L43" s="1"/>
       <c r="M43" s="4" t="s">
         <v>133</v>
@@ -57254,8 +53561,8 @@
         <v>15938</v>
       </c>
       <c r="U43" s="1"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="12"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="10"/>
       <c r="X43" s="4" t="s">
         <v>133</v>
       </c>
@@ -57270,8 +53577,8 @@
         <v>133</v>
       </c>
       <c r="AE43" s="4"/>
-      <c r="AF43" s="12"/>
-      <c r="AG43" s="15"/>
+      <c r="AF43" s="10"/>
+      <c r="AG43" s="13"/>
       <c r="AH43" s="1"/>
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
@@ -57301,7 +53608,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="14"/>
+      <c r="K44" s="12"/>
       <c r="L44" s="1"/>
       <c r="M44" s="4" t="s">
         <v>134</v>
@@ -57326,8 +53633,8 @@
         <v>15205</v>
       </c>
       <c r="U44" s="1"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="12"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="10"/>
       <c r="X44" s="4" t="s">
         <v>134</v>
       </c>
@@ -57342,8 +53649,8 @@
         <v>134</v>
       </c>
       <c r="AE44" s="4"/>
-      <c r="AF44" s="12"/>
-      <c r="AG44" s="15"/>
+      <c r="AF44" s="10"/>
+      <c r="AG44" s="13"/>
       <c r="AH44" s="1"/>
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
@@ -57373,7 +53680,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="14"/>
+      <c r="K45" s="12"/>
       <c r="L45" s="1"/>
       <c r="M45" s="4" t="s">
         <v>135</v>
@@ -57398,8 +53705,8 @@
         <v>12684</v>
       </c>
       <c r="U45" s="1"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="12"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="10"/>
       <c r="X45" s="4" t="s">
         <v>135</v>
       </c>
@@ -57414,8 +53721,8 @@
         <v>135</v>
       </c>
       <c r="AE45" s="4"/>
-      <c r="AF45" s="12"/>
-      <c r="AG45" s="15"/>
+      <c r="AF45" s="10"/>
+      <c r="AG45" s="13"/>
       <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
@@ -57445,7 +53752,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="14"/>
+      <c r="K46" s="12"/>
       <c r="L46" s="1"/>
       <c r="M46" s="5" t="s">
         <v>136</v>
@@ -57470,8 +53777,8 @@
         <v>15842</v>
       </c>
       <c r="U46" s="1"/>
-      <c r="V46" s="15"/>
-      <c r="W46" s="12"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="10"/>
       <c r="X46" s="5" t="s">
         <v>136</v>
       </c>
@@ -57486,8 +53793,8 @@
         <v>136</v>
       </c>
       <c r="AE46" s="5"/>
-      <c r="AF46" s="12"/>
-      <c r="AG46" s="15"/>
+      <c r="AF46" s="10"/>
+      <c r="AG46" s="13"/>
       <c r="AH46" s="1"/>
       <c r="AI46" s="1"/>
       <c r="AJ46" s="1"/>
@@ -57517,7 +53824,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="14"/>
+      <c r="K47" s="12"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -57528,8 +53835,8 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
-      <c r="V47" s="15"/>
-      <c r="W47" s="12"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="10"/>
       <c r="X47" s="8"/>
       <c r="Y47" s="8"/>
       <c r="Z47" s="1"/>
@@ -57538,8 +53845,8 @@
       <c r="AC47" s="1"/>
       <c r="AD47" s="8"/>
       <c r="AE47" s="8"/>
-      <c r="AF47" s="12"/>
-      <c r="AG47" s="15"/>
+      <c r="AF47" s="10"/>
+      <c r="AG47" s="13"/>
       <c r="AH47" s="1"/>
       <c r="AI47" s="1"/>
       <c r="AJ47" s="1"/>
@@ -57569,7 +53876,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="14"/>
+      <c r="K48" s="12"/>
       <c r="L48" s="1"/>
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
@@ -57580,8 +53887,8 @@
       <c r="S48" s="8"/>
       <c r="T48" s="8"/>
       <c r="U48" s="1"/>
-      <c r="V48" s="15"/>
-      <c r="W48" s="12"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="10"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
@@ -57590,8 +53897,8 @@
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
-      <c r="AF48" s="12"/>
-      <c r="AG48" s="15"/>
+      <c r="AF48" s="10"/>
+      <c r="AG48" s="13"/>
       <c r="AH48" s="1"/>
       <c r="AI48" s="1"/>
       <c r="AJ48" s="1"/>
@@ -57619,7 +53926,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="14"/>
+      <c r="K49" s="12"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -57630,8 +53937,8 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
-      <c r="V49" s="15"/>
-      <c r="W49" s="12"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="10"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
@@ -57640,8 +53947,8 @@
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
-      <c r="AF49" s="12"/>
-      <c r="AG49" s="15"/>
+      <c r="AF49" s="10"/>
+      <c r="AG49" s="13"/>
       <c r="AH49" s="1"/>
       <c r="AI49" s="1"/>
       <c r="AJ49" s="1"/>
@@ -57669,7 +53976,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="14"/>
+      <c r="K50" s="12"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -57680,8 +53987,8 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
-      <c r="V50" s="15"/>
-      <c r="W50" s="12"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="10"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
@@ -57690,8 +53997,8 @@
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
-      <c r="AF50" s="12"/>
-      <c r="AG50" s="15"/>
+      <c r="AF50" s="10"/>
+      <c r="AG50" s="13"/>
       <c r="AH50" s="1"/>
       <c r="AI50" s="1"/>
       <c r="AJ50" s="1"/>
@@ -57719,7 +54026,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="14"/>
+      <c r="K51" s="12"/>
       <c r="L51" s="1"/>
       <c r="M51" s="21" t="s">
         <v>29</v>
@@ -57732,8 +54039,8 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
-      <c r="V51" s="15"/>
-      <c r="W51" s="12"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="10"/>
       <c r="X51" s="21" t="s">
         <v>29</v>
       </c>
@@ -57744,8 +54051,8 @@
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
-      <c r="AF51" s="12"/>
-      <c r="AG51" s="15"/>
+      <c r="AF51" s="10"/>
+      <c r="AG51" s="13"/>
       <c r="AH51" s="1"/>
       <c r="AI51" s="1"/>
       <c r="AJ51" s="1"/>
@@ -57773,7 +54080,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
-      <c r="K52" s="14"/>
+      <c r="K52" s="12"/>
       <c r="L52" s="1"/>
       <c r="M52" s="23"/>
       <c r="N52" s="24"/>
@@ -57784,8 +54091,8 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
-      <c r="V52" s="15"/>
-      <c r="W52" s="12"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="10"/>
       <c r="X52" s="23"/>
       <c r="Y52" s="24"/>
       <c r="Z52" s="1"/>
@@ -57794,8 +54101,8 @@
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
-      <c r="AF52" s="12"/>
-      <c r="AG52" s="15"/>
+      <c r="AF52" s="10"/>
+      <c r="AG52" s="13"/>
       <c r="AH52" s="1"/>
       <c r="AI52" s="1"/>
       <c r="AJ52" s="1"/>
@@ -57804,16 +54111,16 @@
       <c r="AM52" s="1"/>
       <c r="AN52" s="1"/>
       <c r="AO52" s="1"/>
-      <c r="AP52" s="19" t="s">
+      <c r="AP52" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="AQ52" s="10" t="s">
+      <c r="AQ52" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="AR52" s="19" t="s">
+      <c r="AR52" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="AS52" s="19" t="s">
+      <c r="AS52" s="17" t="s">
         <v>30</v>
       </c>
       <c r="AT52" s="1"/>
@@ -57830,7 +54137,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
-      <c r="K53" s="14"/>
+      <c r="K53" s="12"/>
       <c r="L53" s="1"/>
       <c r="M53" s="25" t="s">
         <v>39</v>
@@ -57843,8 +54150,8 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
-      <c r="V53" s="15"/>
-      <c r="W53" s="12"/>
+      <c r="V53" s="13"/>
+      <c r="W53" s="10"/>
       <c r="X53" s="25" t="s">
         <v>52</v>
       </c>
@@ -57855,8 +54162,8 @@
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
-      <c r="AF53" s="12"/>
-      <c r="AG53" s="15"/>
+      <c r="AF53" s="10"/>
+      <c r="AG53" s="13"/>
       <c r="AH53" s="1"/>
       <c r="AI53" s="1"/>
       <c r="AJ53" s="1"/>
@@ -57865,19 +54172,16 @@
       <c r="AM53" s="1"/>
       <c r="AN53" s="1"/>
       <c r="AO53" s="1"/>
-      <c r="AP53" s="4" t="s">
+      <c r="AP53" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AQ53" s="3" t="str">
-        <f>LOOKUP(AR53,N10:N24,M10:M24)</f>
-        <v>17h</v>
-      </c>
-      <c r="AR53" s="4">
-        <f>MAX($N$10:$N$24)</f>
+      <c r="AQ53" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR53" s="30">
         <v>21474</v>
       </c>
-      <c r="AS53" s="4">
-        <f>$N$18</f>
+      <c r="AS53" s="30">
         <v>17049</v>
       </c>
       <c r="AT53" s="1"/>
@@ -57894,7 +54198,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="14"/>
+      <c r="K54" s="12"/>
       <c r="L54" s="1"/>
       <c r="M54" s="2" t="s">
         <v>31</v>
@@ -57909,8 +54213,8 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
-      <c r="V54" s="15"/>
-      <c r="W54" s="12"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="10"/>
       <c r="X54" s="2" t="s">
         <v>31</v>
       </c>
@@ -57923,8 +54227,8 @@
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
-      <c r="AF54" s="12"/>
-      <c r="AG54" s="15"/>
+      <c r="AF54" s="10"/>
+      <c r="AG54" s="13"/>
       <c r="AH54" s="1"/>
       <c r="AI54" s="1"/>
       <c r="AJ54" s="1"/>
@@ -57933,18 +54237,16 @@
       <c r="AM54" s="1"/>
       <c r="AN54" s="1"/>
       <c r="AO54" s="1"/>
-      <c r="AP54" s="4" t="s">
+      <c r="AP54" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="AQ54" s="3" t="s">
+      <c r="AQ54" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="AR54" s="4">
-        <f>17746</f>
+      <c r="AR54" s="30">
         <v>17746</v>
       </c>
-      <c r="AS54" s="4">
-        <f>$N$40</f>
+      <c r="AS54" s="30">
         <v>17746</v>
       </c>
       <c r="AT54" s="1"/>
@@ -57961,7 +54263,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
-      <c r="K55" s="14"/>
+      <c r="K55" s="12"/>
       <c r="L55" s="1"/>
       <c r="M55" s="4" t="s">
         <v>32</v>
@@ -57971,13 +54273,21 @@
       </c>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
+      <c r="Q55" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="R55" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="S55" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="T55" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="U55" s="1"/>
-      <c r="V55" s="15"/>
-      <c r="W55" s="12"/>
+      <c r="V55" s="13"/>
+      <c r="W55" s="10"/>
       <c r="X55" s="4" t="s">
         <v>32</v>
       </c>
@@ -57990,8 +54300,8 @@
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
-      <c r="AF55" s="12"/>
-      <c r="AG55" s="15"/>
+      <c r="AF55" s="10"/>
+      <c r="AG55" s="13"/>
       <c r="AH55" s="1"/>
       <c r="AI55" s="1"/>
       <c r="AJ55" s="1"/>
@@ -58000,18 +54310,16 @@
       <c r="AM55" s="1"/>
       <c r="AN55" s="1"/>
       <c r="AO55" s="1"/>
-      <c r="AP55" s="4" t="s">
+      <c r="AP55" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AQ55" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AR55" s="4">
-        <f>MAX($T$10:$T$24)</f>
-        <v>23750</v>
-      </c>
-      <c r="AS55" s="4">
-        <f>$T$18</f>
+      <c r="AQ55" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR55" s="30">
+        <v>18474</v>
+      </c>
+      <c r="AS55" s="30">
         <v>17568</v>
       </c>
       <c r="AT55" s="1"/>
@@ -58028,7 +54336,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
-      <c r="K56" s="14"/>
+      <c r="K56" s="12"/>
       <c r="L56" s="1"/>
       <c r="M56" s="4" t="s">
         <v>33</v>
@@ -58038,13 +54346,21 @@
       </c>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
+      <c r="Q56" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="R56" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="S56" s="30">
+        <v>21474</v>
+      </c>
+      <c r="T56" s="30">
+        <v>17049</v>
+      </c>
       <c r="U56" s="1"/>
-      <c r="V56" s="15"/>
-      <c r="W56" s="12"/>
+      <c r="V56" s="13"/>
+      <c r="W56" s="10"/>
       <c r="X56" s="4" t="s">
         <v>33</v>
       </c>
@@ -58057,8 +54373,8 @@
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
-      <c r="AF56" s="12"/>
-      <c r="AG56" s="15"/>
+      <c r="AF56" s="10"/>
+      <c r="AG56" s="13"/>
       <c r="AH56" s="1"/>
       <c r="AI56" s="1"/>
       <c r="AJ56" s="1"/>
@@ -58067,19 +54383,16 @@
       <c r="AM56" s="1"/>
       <c r="AN56" s="1"/>
       <c r="AO56" s="1"/>
-      <c r="AP56" s="4" t="s">
+      <c r="AP56" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AQ56" s="3" t="str">
-        <f>LOOKUP(AR56,N54:N68,M54:M68)</f>
-        <v>17h</v>
-      </c>
-      <c r="AR56" s="4">
-        <f>MAX($N$54:$N$68)</f>
+      <c r="AQ56" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR56" s="30">
         <v>20570</v>
       </c>
-      <c r="AS56" s="4">
-        <f>$N$62</f>
+      <c r="AS56" s="30">
         <v>14074</v>
       </c>
       <c r="AT56" s="1"/>
@@ -58096,7 +54409,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="14"/>
+      <c r="K57" s="12"/>
       <c r="L57" s="1"/>
       <c r="M57" s="4" t="s">
         <v>34</v>
@@ -58106,13 +54419,21 @@
       </c>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
-      <c r="T57" s="1"/>
+      <c r="Q57" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="R57" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="S57" s="30">
+        <v>17746</v>
+      </c>
+      <c r="T57" s="30">
+        <v>17746</v>
+      </c>
       <c r="U57" s="1"/>
-      <c r="V57" s="15"/>
-      <c r="W57" s="12"/>
+      <c r="V57" s="13"/>
+      <c r="W57" s="10"/>
       <c r="X57" s="4" t="s">
         <v>34</v>
       </c>
@@ -58125,8 +54446,8 @@
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
-      <c r="AF57" s="12"/>
-      <c r="AG57" s="15"/>
+      <c r="AF57" s="10"/>
+      <c r="AG57" s="13"/>
       <c r="AH57" s="1"/>
       <c r="AI57" s="1"/>
       <c r="AJ57" s="1"/>
@@ -58135,18 +54456,16 @@
       <c r="AM57" s="1"/>
       <c r="AN57" s="1"/>
       <c r="AO57" s="1"/>
-      <c r="AP57" s="4" t="s">
+      <c r="AP57" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AQ57" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AR57" s="4">
-        <f>MAX(Q10:Q24)</f>
-        <v>21674</v>
-      </c>
-      <c r="AS57" s="4">
-        <f>$Q$18</f>
+      <c r="AQ57" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR57" s="30">
+        <v>23750</v>
+      </c>
+      <c r="AS57" s="30">
         <v>21674</v>
       </c>
       <c r="AT57" s="1"/>
@@ -58163,7 +54482,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="14"/>
+      <c r="K58" s="12"/>
       <c r="L58" s="1"/>
       <c r="M58" s="4" t="s">
         <v>35</v>
@@ -58173,13 +54492,21 @@
       </c>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
-      <c r="T58" s="1"/>
+      <c r="Q58" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="R58" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="S58" s="30">
+        <v>18474</v>
+      </c>
+      <c r="T58" s="30">
+        <v>17568</v>
+      </c>
       <c r="U58" s="1"/>
-      <c r="V58" s="15"/>
-      <c r="W58" s="12"/>
+      <c r="V58" s="13"/>
+      <c r="W58" s="10"/>
       <c r="X58" s="4" t="s">
         <v>35</v>
       </c>
@@ -58192,8 +54519,8 @@
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
-      <c r="AF58" s="12"/>
-      <c r="AG58" s="15"/>
+      <c r="AF58" s="10"/>
+      <c r="AG58" s="13"/>
       <c r="AH58" s="1"/>
       <c r="AI58" s="1"/>
       <c r="AJ58" s="1"/>
@@ -58202,18 +54529,16 @@
       <c r="AM58" s="1"/>
       <c r="AN58" s="1"/>
       <c r="AO58" s="1"/>
-      <c r="AP58" s="4" t="s">
+      <c r="AP58" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AQ58" s="3" t="s">
+      <c r="AQ58" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="AR58" s="4">
-        <f>MAX($T$32:$T$46)</f>
+      <c r="AR58" s="30">
         <v>16933</v>
       </c>
-      <c r="AS58" s="4">
-        <f>$T$40</f>
+      <c r="AS58" s="30">
         <v>13138</v>
       </c>
       <c r="AT58" s="1"/>
@@ -58230,7 +54555,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
-      <c r="K59" s="14"/>
+      <c r="K59" s="12"/>
       <c r="L59" s="1"/>
       <c r="M59" s="4" t="s">
         <v>36</v>
@@ -58240,13 +54565,21 @@
       </c>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
+      <c r="Q59" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="R59" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="S59" s="30">
+        <v>20570</v>
+      </c>
+      <c r="T59" s="30">
+        <v>14074</v>
+      </c>
       <c r="U59" s="1"/>
-      <c r="V59" s="15"/>
-      <c r="W59" s="12"/>
+      <c r="V59" s="13"/>
+      <c r="W59" s="10"/>
       <c r="X59" s="4" t="s">
         <v>36</v>
       </c>
@@ -58259,8 +54592,8 @@
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
-      <c r="AF59" s="12"/>
-      <c r="AG59" s="15"/>
+      <c r="AF59" s="10"/>
+      <c r="AG59" s="13"/>
       <c r="AH59" s="1"/>
       <c r="AI59" s="1"/>
       <c r="AJ59" s="1"/>
@@ -58269,18 +54602,16 @@
       <c r="AM59" s="1"/>
       <c r="AN59" s="1"/>
       <c r="AO59" s="1"/>
-      <c r="AP59" s="4" t="s">
+      <c r="AP59" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="AQ59" s="3" t="s">
+      <c r="AQ59" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="AR59" s="4">
-        <f>MAX($Q$32:$Q$46)</f>
+      <c r="AR59" s="30">
         <v>20825</v>
       </c>
-      <c r="AS59" s="4">
-        <f>$Q$40</f>
+      <c r="AS59" s="30">
         <v>20825</v>
       </c>
       <c r="AT59" s="1"/>
@@ -58297,7 +54628,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
-      <c r="K60" s="14"/>
+      <c r="K60" s="12"/>
       <c r="L60" s="1"/>
       <c r="M60" s="4" t="s">
         <v>37</v>
@@ -58307,13 +54638,21 @@
       </c>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
+      <c r="Q60" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="R60" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="S60" s="30">
+        <v>23750</v>
+      </c>
+      <c r="T60" s="30">
+        <v>21674</v>
+      </c>
       <c r="U60" s="1"/>
-      <c r="V60" s="15"/>
-      <c r="W60" s="12"/>
+      <c r="V60" s="13"/>
+      <c r="W60" s="10"/>
       <c r="X60" s="4" t="s">
         <v>37</v>
       </c>
@@ -58326,8 +54665,8 @@
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
-      <c r="AF60" s="12"/>
-      <c r="AG60" s="15"/>
+      <c r="AF60" s="10"/>
+      <c r="AG60" s="13"/>
       <c r="AH60" s="1"/>
       <c r="AI60" s="1"/>
       <c r="AJ60" s="1"/>
@@ -58336,23 +54675,24 @@
       <c r="AM60" s="1"/>
       <c r="AN60" s="1"/>
       <c r="AO60" s="1"/>
-      <c r="AP60" s="19" t="s">
+      <c r="AP60" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="AQ60" s="10"/>
-      <c r="AR60" s="19">
-        <f>AR53+AR54+AR55+AR56+AR57+AR58+AR59</f>
-        <v>142972</v>
-      </c>
-      <c r="AS60" s="19">
+      <c r="AQ60" s="17"/>
+      <c r="AR60" s="17">
+        <f>SUM(AR53:AR59)</f>
+        <v>139772</v>
+      </c>
+      <c r="AS60" s="17">
         <f>SUM(AS53:AS59)</f>
         <v>122074</v>
       </c>
       <c r="AT60" s="1">
         <f>AR60-AS60</f>
-        <v>20898</v>
+        <v>17698</v>
       </c>
       <c r="AU60" s="1"/>
+      <c r="AV60" s="35"/>
     </row>
     <row r="61" spans="1:48" ht="20">
       <c r="A61" s="1"/>
@@ -58365,23 +54705,31 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
-      <c r="K61" s="14"/>
+      <c r="K61" s="12"/>
       <c r="L61" s="1"/>
-      <c r="M61" s="30" t="s">
+      <c r="M61" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="N61" s="31">
+      <c r="N61" s="20">
         <v>20570</v>
       </c>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
+      <c r="Q61" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R61" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="S61" s="30">
+        <v>16933</v>
+      </c>
+      <c r="T61" s="30">
+        <v>13138</v>
+      </c>
       <c r="U61" s="1"/>
-      <c r="V61" s="15"/>
-      <c r="W61" s="12"/>
+      <c r="V61" s="13"/>
+      <c r="W61" s="10"/>
       <c r="X61" s="4" t="s">
         <v>38</v>
       </c>
@@ -58394,8 +54742,8 @@
       <c r="AC61" s="1"/>
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
-      <c r="AF61" s="12"/>
-      <c r="AG61" s="15"/>
+      <c r="AF61" s="10"/>
+      <c r="AG61" s="13"/>
       <c r="AH61" s="1"/>
       <c r="AI61" s="1"/>
       <c r="AJ61" s="1"/>
@@ -58408,9 +54756,9 @@
       <c r="AQ61" s="8"/>
       <c r="AR61" s="8"/>
       <c r="AS61" s="8"/>
-      <c r="AT61" s="20">
+      <c r="AT61" s="18">
         <f>AT60/AS60</f>
-        <v>0.17119124465488147</v>
+        <v>0.14497763651555615</v>
       </c>
       <c r="AU61" s="1"/>
     </row>
@@ -58425,7 +54773,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
-      <c r="K62" s="14"/>
+      <c r="K62" s="12"/>
       <c r="L62" s="1"/>
       <c r="M62" s="4" t="s">
         <v>30</v>
@@ -58435,13 +54783,21 @@
       </c>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
+      <c r="Q62" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="R62" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="S62" s="30">
+        <v>20825</v>
+      </c>
+      <c r="T62" s="30">
+        <v>20825</v>
+      </c>
       <c r="U62" s="1"/>
-      <c r="V62" s="15"/>
-      <c r="W62" s="12"/>
+      <c r="V62" s="13"/>
+      <c r="W62" s="10"/>
       <c r="X62" s="4" t="s">
         <v>30</v>
       </c>
@@ -58454,8 +54810,8 @@
       <c r="AC62" s="1"/>
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
-      <c r="AF62" s="12"/>
-      <c r="AG62" s="15"/>
+      <c r="AF62" s="10"/>
+      <c r="AG62" s="13"/>
       <c r="AH62" s="1"/>
       <c r="AI62" s="1"/>
       <c r="AJ62" s="1"/>
@@ -58482,7 +54838,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
-      <c r="K63" s="14"/>
+      <c r="K63" s="12"/>
       <c r="L63" s="1"/>
       <c r="M63" s="4" t="s">
         <v>131</v>
@@ -58493,25 +54849,33 @@
       </c>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
+      <c r="Q63" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="R63" s="17"/>
+      <c r="S63" s="17">
+        <f>SUM(S56:S62)</f>
+        <v>139772</v>
+      </c>
+      <c r="T63" s="17">
+        <f>SUM(T56:T62)</f>
+        <v>122074</v>
+      </c>
       <c r="U63" s="1"/>
-      <c r="V63" s="15"/>
-      <c r="W63" s="12"/>
+      <c r="V63" s="13"/>
+      <c r="W63" s="10"/>
       <c r="X63" s="4" t="s">
         <v>131</v>
       </c>
       <c r="Y63" s="4"/>
-      <c r="Z63" s="12"/>
-      <c r="AA63" s="12"/>
-      <c r="AB63" s="12"/>
-      <c r="AC63" s="12"/>
-      <c r="AD63" s="12"/>
-      <c r="AE63" s="12"/>
-      <c r="AF63" s="12"/>
-      <c r="AG63" s="15"/>
+      <c r="Z63" s="10"/>
+      <c r="AA63" s="10"/>
+      <c r="AB63" s="10"/>
+      <c r="AC63" s="10"/>
+      <c r="AD63" s="10"/>
+      <c r="AE63" s="10"/>
+      <c r="AF63" s="10"/>
+      <c r="AG63" s="13"/>
       <c r="AH63" s="1"/>
       <c r="AI63" s="1"/>
       <c r="AJ63" s="1"/>
@@ -58539,7 +54903,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
-      <c r="K64" s="14"/>
+      <c r="K64" s="12"/>
       <c r="L64" s="1"/>
       <c r="M64" s="4" t="s">
         <v>132</v>
@@ -58555,27 +54919,27 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
-      <c r="V64" s="17"/>
+      <c r="V64" s="15"/>
       <c r="W64" s="1"/>
       <c r="X64" s="4" t="s">
         <v>132</v>
       </c>
       <c r="Y64" s="4"/>
-      <c r="Z64" s="12"/>
-      <c r="AA64" s="12"/>
-      <c r="AB64" s="12"/>
-      <c r="AC64" s="12"/>
-      <c r="AD64" s="12"/>
-      <c r="AE64" s="12"/>
+      <c r="Z64" s="10"/>
+      <c r="AA64" s="10"/>
+      <c r="AB64" s="10"/>
+      <c r="AC64" s="10"/>
+      <c r="AD64" s="10"/>
+      <c r="AE64" s="10"/>
       <c r="AF64" s="1"/>
-      <c r="AG64" s="15"/>
+      <c r="AG64" s="13"/>
       <c r="AH64" s="1"/>
       <c r="AI64" s="1"/>
       <c r="AJ64" s="1"/>
       <c r="AK64" s="1"/>
       <c r="AL64" s="1"/>
     </row>
-    <row r="65" spans="1:44">
+    <row r="65" spans="1:38">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -58586,7 +54950,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
-      <c r="K65" s="14"/>
+      <c r="K65" s="12"/>
       <c r="L65" s="1"/>
       <c r="M65" s="4" t="s">
         <v>133</v>
@@ -58602,27 +54966,27 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
-      <c r="V65" s="17"/>
+      <c r="V65" s="15"/>
       <c r="W65" s="1"/>
       <c r="X65" s="4" t="s">
         <v>133</v>
       </c>
       <c r="Y65" s="4"/>
-      <c r="Z65" s="12"/>
-      <c r="AA65" s="12"/>
-      <c r="AB65" s="12"/>
-      <c r="AC65" s="12"/>
-      <c r="AD65" s="12"/>
-      <c r="AE65" s="12"/>
+      <c r="Z65" s="10"/>
+      <c r="AA65" s="10"/>
+      <c r="AB65" s="10"/>
+      <c r="AC65" s="10"/>
+      <c r="AD65" s="10"/>
+      <c r="AE65" s="10"/>
       <c r="AF65" s="1"/>
-      <c r="AG65" s="17"/>
+      <c r="AG65" s="15"/>
       <c r="AH65" s="1"/>
       <c r="AI65" s="1"/>
       <c r="AJ65" s="1"/>
       <c r="AK65" s="1"/>
       <c r="AL65" s="1"/>
     </row>
-    <row r="66" spans="1:44">
+    <row r="66" spans="1:38">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -58633,7 +54997,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
-      <c r="K66" s="17"/>
+      <c r="K66" s="15"/>
       <c r="L66" s="1"/>
       <c r="M66" s="4" t="s">
         <v>134</v>
@@ -58649,39 +55013,27 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
-      <c r="V66" s="17"/>
+      <c r="V66" s="15"/>
       <c r="W66" s="1"/>
       <c r="X66" s="4" t="s">
         <v>134</v>
       </c>
       <c r="Y66" s="4"/>
-      <c r="Z66" s="12"/>
-      <c r="AA66" s="12"/>
-      <c r="AB66" s="12"/>
-      <c r="AC66" s="12"/>
-      <c r="AD66" s="12"/>
-      <c r="AE66" s="12"/>
+      <c r="Z66" s="10"/>
+      <c r="AA66" s="10"/>
+      <c r="AB66" s="10"/>
+      <c r="AC66" s="10"/>
+      <c r="AD66" s="10"/>
+      <c r="AE66" s="10"/>
       <c r="AF66" s="1"/>
-      <c r="AG66" s="17"/>
+      <c r="AG66" s="15"/>
       <c r="AH66" s="1"/>
       <c r="AI66" s="1"/>
       <c r="AJ66" s="1"/>
       <c r="AK66" s="1"/>
       <c r="AL66" s="1"/>
-      <c r="AP66" s="4">
-        <f>$N$18</f>
-        <v>17049</v>
-      </c>
-      <c r="AQ66" s="3" t="e">
-        <f>LOOKUP(AR66,M23:M37,L23:L37)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AR66" s="4">
-        <f>MAX($N$10:$N$24)</f>
-        <v>21474</v>
-      </c>
-    </row>
-    <row r="67" spans="1:44">
+    </row>
+    <row r="67" spans="1:38">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -58691,7 +55043,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
-      <c r="K67" s="17"/>
+      <c r="K67" s="15"/>
       <c r="L67" s="1"/>
       <c r="M67" s="4" t="s">
         <v>135</v>
@@ -58706,32 +55058,20 @@
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
-      <c r="V67" s="18"/>
+      <c r="V67" s="16"/>
       <c r="X67" s="4" t="s">
         <v>135</v>
       </c>
       <c r="Y67" s="4"/>
-      <c r="Z67" s="12"/>
-      <c r="AA67" s="12"/>
-      <c r="AB67" s="12"/>
-      <c r="AC67" s="12"/>
-      <c r="AD67" s="12"/>
-      <c r="AE67" s="12"/>
-      <c r="AG67" s="18"/>
-      <c r="AP67" s="4">
-        <f>$N$40</f>
-        <v>17746</v>
-      </c>
-      <c r="AQ67" s="3" t="e">
-        <f>LOOKUP(AR67,M45:M59,L45:L59)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AR67" s="4">
-        <f>MAX($N$32:$N$46)</f>
-        <v>17746</v>
-      </c>
-    </row>
-    <row r="68" spans="1:44">
+      <c r="Z67" s="10"/>
+      <c r="AA67" s="10"/>
+      <c r="AB67" s="10"/>
+      <c r="AC67" s="10"/>
+      <c r="AD67" s="10"/>
+      <c r="AE67" s="10"/>
+      <c r="AG67" s="16"/>
+    </row>
+    <row r="68" spans="1:38">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -58741,7 +55081,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
-      <c r="K68" s="17"/>
+      <c r="K68" s="15"/>
       <c r="L68" s="1"/>
       <c r="M68" s="5" t="s">
         <v>136</v>
@@ -58756,32 +55096,20 @@
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
-      <c r="V68" s="18"/>
+      <c r="V68" s="16"/>
       <c r="X68" s="5" t="s">
         <v>136</v>
       </c>
       <c r="Y68" s="5"/>
-      <c r="Z68" s="12"/>
-      <c r="AA68" s="12"/>
-      <c r="AB68" s="12"/>
-      <c r="AC68" s="12"/>
-      <c r="AD68" s="12"/>
-      <c r="AE68" s="12"/>
-      <c r="AG68" s="18"/>
-      <c r="AP68" s="4">
-        <f>$T$18</f>
-        <v>17568</v>
-      </c>
-      <c r="AQ68" s="3" t="e">
-        <f>LOOKUP(AR68,S23:S37,R23:R37)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AR68" s="4">
-        <f>MAX($T$10:$T$24)</f>
-        <v>23750</v>
-      </c>
-    </row>
-    <row r="69" spans="1:44">
+      <c r="Z68" s="10"/>
+      <c r="AA68" s="10"/>
+      <c r="AB68" s="10"/>
+      <c r="AC68" s="10"/>
+      <c r="AD68" s="10"/>
+      <c r="AE68" s="10"/>
+      <c r="AG68" s="16"/>
+    </row>
+    <row r="69" spans="1:38">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -58790,7 +55118,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="K69" s="18"/>
+      <c r="K69" s="16"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
@@ -58799,31 +55127,19 @@
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
-      <c r="V69" s="18"/>
-      <c r="X69" s="12"/>
-      <c r="Y69" s="12"/>
-      <c r="Z69" s="12"/>
-      <c r="AA69" s="12"/>
-      <c r="AB69" s="12"/>
-      <c r="AC69" s="12"/>
-      <c r="AD69" s="12"/>
-      <c r="AE69" s="12"/>
-      <c r="AG69" s="18"/>
-      <c r="AP69" s="4">
-        <f>$N$62</f>
-        <v>14074</v>
-      </c>
-      <c r="AQ69" s="3" t="e">
-        <f>LOOKUP(AR69,M67:M81,L67:L81)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AR69" s="4">
-        <f>MAX($N$54:$N$68)</f>
-        <v>20570</v>
-      </c>
-    </row>
-    <row r="70" spans="1:44">
-      <c r="K70" s="18"/>
+      <c r="V69" s="16"/>
+      <c r="X69" s="10"/>
+      <c r="Y69" s="10"/>
+      <c r="Z69" s="10"/>
+      <c r="AA69" s="10"/>
+      <c r="AB69" s="10"/>
+      <c r="AC69" s="10"/>
+      <c r="AD69" s="10"/>
+      <c r="AE69" s="10"/>
+      <c r="AG69" s="16"/>
+    </row>
+    <row r="70" spans="1:38">
+      <c r="K70" s="16"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
@@ -58832,31 +55148,19 @@
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
-      <c r="V70" s="18"/>
-      <c r="X70" s="12"/>
-      <c r="Y70" s="12"/>
-      <c r="Z70" s="12"/>
-      <c r="AA70" s="12"/>
-      <c r="AB70" s="12"/>
-      <c r="AC70" s="12"/>
-      <c r="AD70" s="12"/>
-      <c r="AE70" s="12"/>
-      <c r="AG70" s="18"/>
-      <c r="AP70" s="4">
-        <f>$Q$18</f>
-        <v>21674</v>
-      </c>
-      <c r="AQ70" s="3" t="e">
-        <f>LOOKUP(AR70,P23:P37,O23:O37)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AR70" s="4">
-        <f>MAX(P23:P37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:44">
-      <c r="K71" s="18"/>
+      <c r="V70" s="16"/>
+      <c r="X70" s="10"/>
+      <c r="Y70" s="10"/>
+      <c r="Z70" s="10"/>
+      <c r="AA70" s="10"/>
+      <c r="AB70" s="10"/>
+      <c r="AC70" s="10"/>
+      <c r="AD70" s="10"/>
+      <c r="AE70" s="10"/>
+      <c r="AG70" s="16"/>
+    </row>
+    <row r="71" spans="1:38">
+      <c r="K71" s="16"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
@@ -58865,30 +55169,18 @@
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
-      <c r="V71" s="18"/>
-      <c r="X71" s="12"/>
-      <c r="Y71" s="12"/>
-      <c r="Z71" s="12"/>
-      <c r="AA71" s="12"/>
-      <c r="AB71" s="12"/>
-      <c r="AC71" s="12"/>
-      <c r="AD71" s="12"/>
-      <c r="AE71" s="12"/>
-      <c r="AG71" s="18"/>
-      <c r="AP71" s="4">
-        <f>$T$40</f>
-        <v>13138</v>
-      </c>
-      <c r="AQ71" s="3" t="e">
-        <f>LOOKUP(AR71,S45:S59,R45:R59)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AR71" s="4">
-        <f>MAX($T$32:$T$46)</f>
-        <v>16933</v>
-      </c>
-    </row>
-    <row r="72" spans="1:44">
+      <c r="V71" s="16"/>
+      <c r="X71" s="10"/>
+      <c r="Y71" s="10"/>
+      <c r="Z71" s="10"/>
+      <c r="AA71" s="10"/>
+      <c r="AB71" s="10"/>
+      <c r="AC71" s="10"/>
+      <c r="AD71" s="10"/>
+      <c r="AE71" s="10"/>
+      <c r="AG71" s="16"/>
+    </row>
+    <row r="72" spans="1:38">
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
@@ -58897,28 +55189,16 @@
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
-      <c r="X72" s="12"/>
-      <c r="Y72" s="12"/>
-      <c r="Z72" s="12"/>
-      <c r="AA72" s="12"/>
-      <c r="AB72" s="12"/>
-      <c r="AC72" s="12"/>
-      <c r="AD72" s="12"/>
-      <c r="AE72" s="12"/>
-      <c r="AP72" s="4">
-        <f>$Q$40</f>
-        <v>20825</v>
-      </c>
-      <c r="AQ72" s="3" t="e">
-        <f>LOOKUP(AR72,P45:P59,O45:O59)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AR72" s="4">
-        <f>MAX($Q$32:$Q$46)</f>
-        <v>20825</v>
-      </c>
-    </row>
-    <row r="73" spans="1:44">
+      <c r="X72" s="10"/>
+      <c r="Y72" s="10"/>
+      <c r="Z72" s="10"/>
+      <c r="AA72" s="10"/>
+      <c r="AB72" s="10"/>
+      <c r="AC72" s="10"/>
+      <c r="AD72" s="10"/>
+      <c r="AE72" s="10"/>
+    </row>
+    <row r="73" spans="1:38">
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
@@ -58927,25 +55207,16 @@
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
-      <c r="X73" s="12"/>
-      <c r="Y73" s="12"/>
-      <c r="Z73" s="12"/>
-      <c r="AA73" s="12"/>
-      <c r="AB73" s="12"/>
-      <c r="AC73" s="12"/>
-      <c r="AD73" s="12"/>
-      <c r="AE73" s="12"/>
-      <c r="AP73" s="2">
-        <f>SUM(AP66:AP72)</f>
-        <v>122074</v>
-      </c>
-      <c r="AQ73" s="9"/>
-      <c r="AR73" s="2">
-        <f>AR66+AR67+AR68+AR69+AR70+AR71+AR72</f>
-        <v>121298</v>
-      </c>
-    </row>
-    <row r="74" spans="1:44">
+      <c r="X73" s="10"/>
+      <c r="Y73" s="10"/>
+      <c r="Z73" s="10"/>
+      <c r="AA73" s="10"/>
+      <c r="AB73" s="10"/>
+      <c r="AC73" s="10"/>
+      <c r="AD73" s="10"/>
+      <c r="AE73" s="10"/>
+    </row>
+    <row r="74" spans="1:38">
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
@@ -58954,25 +55225,16 @@
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
-      <c r="X74" s="12"/>
-      <c r="Y74" s="12"/>
-      <c r="Z74" s="12"/>
-      <c r="AA74" s="12"/>
-      <c r="AB74" s="12"/>
-      <c r="AC74" s="12"/>
-      <c r="AD74" s="12"/>
-      <c r="AE74" s="12"/>
-      <c r="AP74" s="2">
-        <f>SUM(AP67:AP73)</f>
-        <v>227099</v>
-      </c>
-      <c r="AQ74" s="9"/>
-      <c r="AR74" s="2">
-        <f>AR67+AR68+AR69+AR70+AR71+AR72+AR73</f>
-        <v>221122</v>
-      </c>
-    </row>
-    <row r="75" spans="1:44">
+      <c r="X74" s="10"/>
+      <c r="Y74" s="10"/>
+      <c r="Z74" s="10"/>
+      <c r="AA74" s="10"/>
+      <c r="AB74" s="10"/>
+      <c r="AC74" s="10"/>
+      <c r="AD74" s="10"/>
+      <c r="AE74" s="10"/>
+    </row>
+    <row r="75" spans="1:38">
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
@@ -58981,16 +55243,16 @@
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
-      <c r="X75" s="12"/>
-      <c r="Y75" s="12"/>
-      <c r="Z75" s="12"/>
-      <c r="AA75" s="12"/>
-      <c r="AB75" s="12"/>
-      <c r="AC75" s="12"/>
-      <c r="AD75" s="12"/>
-      <c r="AE75" s="12"/>
-    </row>
-    <row r="76" spans="1:44">
+      <c r="X75" s="10"/>
+      <c r="Y75" s="10"/>
+      <c r="Z75" s="10"/>
+      <c r="AA75" s="10"/>
+      <c r="AB75" s="10"/>
+      <c r="AC75" s="10"/>
+      <c r="AD75" s="10"/>
+      <c r="AE75" s="10"/>
+    </row>
+    <row r="76" spans="1:38">
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
@@ -58999,16 +55261,16 @@
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
-      <c r="X76" s="12"/>
-      <c r="Y76" s="12"/>
-      <c r="Z76" s="12"/>
-      <c r="AA76" s="12"/>
-      <c r="AB76" s="12"/>
-      <c r="AC76" s="12"/>
-      <c r="AD76" s="12"/>
-      <c r="AE76" s="12"/>
-    </row>
-    <row r="77" spans="1:44">
+      <c r="X76" s="10"/>
+      <c r="Y76" s="10"/>
+      <c r="Z76" s="10"/>
+      <c r="AA76" s="10"/>
+      <c r="AB76" s="10"/>
+      <c r="AC76" s="10"/>
+      <c r="AD76" s="10"/>
+      <c r="AE76" s="10"/>
+    </row>
+    <row r="77" spans="1:38">
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
@@ -59017,16 +55279,16 @@
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
-      <c r="X77" s="12"/>
-      <c r="Y77" s="12"/>
-      <c r="Z77" s="12"/>
-      <c r="AA77" s="12"/>
-      <c r="AB77" s="12"/>
-      <c r="AC77" s="12"/>
-      <c r="AD77" s="12"/>
-      <c r="AE77" s="12"/>
-    </row>
-    <row r="78" spans="1:44">
+      <c r="X77" s="10"/>
+      <c r="Y77" s="10"/>
+      <c r="Z77" s="10"/>
+      <c r="AA77" s="10"/>
+      <c r="AB77" s="10"/>
+      <c r="AC77" s="10"/>
+      <c r="AD77" s="10"/>
+      <c r="AE77" s="10"/>
+    </row>
+    <row r="78" spans="1:38">
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
@@ -59044,7 +55306,7 @@
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
     </row>
-    <row r="79" spans="1:44">
+    <row r="79" spans="1:38">
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
@@ -59062,7 +55324,7 @@
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
     </row>
-    <row r="80" spans="1:44">
+    <row r="80" spans="1:38">
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
@@ -59113,29 +55375,13 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="X51:Y52"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="X29:Y30"/>
-    <mergeCell ref="AA29:AB30"/>
-    <mergeCell ref="AD29:AE30"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="W1:AF3"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="AA7:AB8"/>
-    <mergeCell ref="AD7:AE8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="H22:I23"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="M29:N30"/>
-    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="P29:Q30"/>
+    <mergeCell ref="S29:T30"/>
+    <mergeCell ref="B37:C38"/>
+    <mergeCell ref="M51:N52"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="M31:N31"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="L1:U3"/>
     <mergeCell ref="S9:T9"/>
@@ -59151,16 +55397,32 @@
     <mergeCell ref="H7:I8"/>
     <mergeCell ref="M7:N8"/>
     <mergeCell ref="P7:Q8"/>
-    <mergeCell ref="P29:Q30"/>
-    <mergeCell ref="S29:T30"/>
-    <mergeCell ref="B37:C38"/>
-    <mergeCell ref="M51:N52"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="H22:I23"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="M29:N30"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="W1:AF3"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="AA7:AB8"/>
+    <mergeCell ref="AD7:AE8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="X51:Y52"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="X29:Y30"/>
+    <mergeCell ref="AA29:AB30"/>
+    <mergeCell ref="AD29:AE30"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="AD31:AE31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/resAConserver/résultats_horaires24.xlsx
+++ b/resAConserver/résultats_horaires24.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="-5600" windowWidth="35100" windowHeight="21120" tabRatio="730" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="730" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="resultats_9h_24h" sheetId="54" r:id="rId1"/>
@@ -1347,6 +1347,22 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1365,31 +1381,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="48">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1500,7 +1500,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1914,11 +1913,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2076554536"/>
-        <c:axId val="2076107576"/>
+        <c:axId val="2109330568"/>
+        <c:axId val="2070005192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2076554536"/>
+        <c:axId val="2109330568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1960,7 +1959,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2076107576"/>
+        <c:crossAx val="2070005192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1968,7 +1967,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2076107576"/>
+        <c:axId val="2070005192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2018,7 +2017,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2076554536"/>
+        <c:crossAx val="2109330568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2124,7 +2123,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2538,11 +2536,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2074483608"/>
-        <c:axId val="2074487128"/>
+        <c:axId val="2110111608"/>
+        <c:axId val="2110115272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2074483608"/>
+        <c:axId val="2110111608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2584,7 +2582,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2074487128"/>
+        <c:crossAx val="2110115272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2592,7 +2590,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2074487128"/>
+        <c:axId val="2110115272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2642,7 +2640,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2074483608"/>
+        <c:crossAx val="2110111608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2748,7 +2746,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3162,11 +3159,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2064434744"/>
-        <c:axId val="2064606296"/>
+        <c:axId val="2110158216"/>
+        <c:axId val="2110161880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2064434744"/>
+        <c:axId val="2110158216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3208,7 +3205,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2064606296"/>
+        <c:crossAx val="2110161880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3216,7 +3213,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2064606296"/>
+        <c:axId val="2110161880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3266,7 +3263,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2064434744"/>
+        <c:crossAx val="2110158216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3372,7 +3369,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3776,11 +3772,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2075438792"/>
-        <c:axId val="2075442312"/>
+        <c:axId val="2110204424"/>
+        <c:axId val="2110208088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2075438792"/>
+        <c:axId val="2110204424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3822,7 +3818,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075442312"/>
+        <c:crossAx val="2110208088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3830,7 +3826,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075442312"/>
+        <c:axId val="2110208088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3880,7 +3876,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075438792"/>
+        <c:crossAx val="2110204424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4008,7 +4004,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4412,11 +4407,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2075434136"/>
-        <c:axId val="2075430472"/>
+        <c:axId val="2110251640"/>
+        <c:axId val="2110255304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2075434136"/>
+        <c:axId val="2110251640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4458,7 +4453,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075430472"/>
+        <c:crossAx val="2110255304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4466,7 +4461,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075430472"/>
+        <c:axId val="2110255304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4516,7 +4511,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075434136"/>
+        <c:crossAx val="2110251640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4644,7 +4639,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4777,7 +4771,7 @@
                   <c:v>15938.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15938.0</c:v>
+                  <c:v>11683.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>15205.0</c:v>
@@ -5048,11 +5042,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2073271992"/>
-        <c:axId val="2073267384"/>
+        <c:axId val="2109384760"/>
+        <c:axId val="2109388424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2073271992"/>
+        <c:axId val="2109384760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5094,7 +5088,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2073267384"/>
+        <c:crossAx val="2109388424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5102,7 +5096,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2073267384"/>
+        <c:axId val="2109388424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5152,7 +5146,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2073271992"/>
+        <c:crossAx val="2109384760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5258,7 +5252,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5552,11 +5545,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2076485768"/>
-        <c:axId val="2076482104"/>
+        <c:axId val="2109423608"/>
+        <c:axId val="2109427272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2076485768"/>
+        <c:axId val="2109423608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5598,7 +5591,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2076482104"/>
+        <c:crossAx val="2109427272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5606,7 +5599,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2076482104"/>
+        <c:axId val="2109427272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5656,7 +5649,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2076485768"/>
+        <c:crossAx val="2109423608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6200,7 +6193,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -50524,8 +50517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -50537,108 +50530,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
       <c r="K1" s="12"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
       <c r="V1" s="12"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
       <c r="AG1" s="12"/>
     </row>
     <row r="2" spans="1:50">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
       <c r="V2" s="12"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
       <c r="AG2" s="12"/>
     </row>
     <row r="3" spans="1:50">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
       <c r="K3" s="12"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
       <c r="V3" s="12"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
       <c r="AG3" s="12"/>
     </row>
     <row r="4" spans="1:50">
@@ -50781,54 +50774,54 @@
     </row>
     <row r="7" spans="1:50">
       <c r="A7" s="1"/>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="28"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="22"/>
+      <c r="I7" s="28"/>
       <c r="J7" s="1"/>
       <c r="K7" s="12"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="22"/>
+      <c r="N7" s="28"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="21" t="s">
+      <c r="P7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="22"/>
+      <c r="Q7" s="28"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="21" t="s">
+      <c r="S7" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="T7" s="22"/>
+      <c r="T7" s="28"/>
       <c r="U7" s="8"/>
       <c r="V7" s="14"/>
       <c r="W7" s="11"/>
-      <c r="X7" s="21" t="s">
+      <c r="X7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="Y7" s="22"/>
+      <c r="Y7" s="28"/>
       <c r="Z7" s="1"/>
-      <c r="AA7" s="21" t="s">
+      <c r="AA7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="AB7" s="22"/>
+      <c r="AB7" s="28"/>
       <c r="AC7" s="1"/>
-      <c r="AD7" s="21" t="s">
+      <c r="AD7" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="22"/>
+      <c r="AE7" s="28"/>
       <c r="AF7" s="11"/>
       <c r="AG7" s="14"/>
       <c r="AH7" s="1"/>
@@ -50849,36 +50842,36 @@
     </row>
     <row r="8" spans="1:50">
       <c r="A8" s="1"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
       <c r="J8" s="1"/>
       <c r="K8" s="12"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="24"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="30"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="24"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="30"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="24"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="30"/>
       <c r="U8" s="8"/>
       <c r="V8" s="14"/>
       <c r="W8" s="11"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="24"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="30"/>
       <c r="Z8" s="1"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="24"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="30"/>
       <c r="AC8" s="1"/>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="24"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="30"/>
       <c r="AF8" s="11"/>
       <c r="AG8" s="14"/>
       <c r="AH8" s="1"/>
@@ -50899,54 +50892,54 @@
     </row>
     <row r="9" spans="1:50">
       <c r="A9" s="1"/>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="26"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="26"/>
+      <c r="I9" s="32"/>
       <c r="J9" s="1"/>
       <c r="K9" s="12"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="25" t="s">
+      <c r="M9" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="N9" s="26"/>
+      <c r="N9" s="32"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="25" t="s">
+      <c r="P9" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="Q9" s="26"/>
+      <c r="Q9" s="32"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="25" t="s">
+      <c r="S9" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="26"/>
+      <c r="T9" s="32"/>
       <c r="U9" s="8"/>
       <c r="V9" s="14"/>
       <c r="W9" s="11"/>
-      <c r="X9" s="25" t="s">
+      <c r="X9" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="26"/>
+      <c r="Y9" s="32"/>
       <c r="Z9" s="1"/>
-      <c r="AA9" s="25" t="s">
+      <c r="AA9" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="AB9" s="26"/>
+      <c r="AB9" s="32"/>
       <c r="AC9" s="1"/>
-      <c r="AD9" s="25" t="s">
+      <c r="AD9" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="AE9" s="26"/>
+      <c r="AE9" s="32"/>
       <c r="AF9" s="11"/>
       <c r="AG9" s="14"/>
       <c r="AH9" s="1"/>
@@ -51541,10 +51534,10 @@
         <v>1852</v>
       </c>
       <c r="R16" s="1"/>
-      <c r="S16" s="31" t="s">
+      <c r="S16" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="T16" s="32">
+      <c r="T16" s="23">
         <v>18474</v>
       </c>
       <c r="U16" s="8"/>
@@ -51712,10 +51705,10 @@
         <v>17049</v>
       </c>
       <c r="O18" s="1"/>
-      <c r="P18" s="33" t="s">
+      <c r="P18" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="Q18" s="34">
+      <c r="Q18" s="25">
         <v>21674</v>
       </c>
       <c r="R18" s="1"/>
@@ -51786,10 +51779,10 @@
         <v>17002</v>
       </c>
       <c r="O19" s="1"/>
-      <c r="P19" s="31" t="s">
+      <c r="P19" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="Q19" s="31">
+      <c r="Q19" s="22">
         <f>resultats_9h_19h!N$53</f>
         <v>23750</v>
       </c>
@@ -51978,20 +51971,20 @@
     </row>
     <row r="22" spans="1:48">
       <c r="A22" s="1"/>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="22"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="22"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="22"/>
+      <c r="I22" s="28"/>
       <c r="J22" s="1"/>
       <c r="K22" s="12"/>
       <c r="L22" s="1"/>
@@ -52054,14 +52047,14 @@
     </row>
     <row r="23" spans="1:48">
       <c r="A23" s="1"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="24"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="30"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="24"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="30"/>
       <c r="J23" s="1"/>
       <c r="K23" s="12"/>
       <c r="L23" s="1"/>
@@ -52124,20 +52117,20 @@
     </row>
     <row r="24" spans="1:48">
       <c r="A24" s="1"/>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="26"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="26"/>
+      <c r="F24" s="32"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="26"/>
+      <c r="I24" s="32"/>
       <c r="J24" s="1"/>
       <c r="K24" s="12"/>
       <c r="L24" s="1"/>
@@ -52486,37 +52479,37 @@
       <c r="J29" s="1"/>
       <c r="K29" s="12"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="21" t="s">
+      <c r="M29" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="22"/>
+      <c r="N29" s="28"/>
       <c r="O29" s="1"/>
-      <c r="P29" s="21" t="s">
+      <c r="P29" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="Q29" s="22"/>
+      <c r="Q29" s="28"/>
       <c r="R29" s="1"/>
-      <c r="S29" s="21" t="s">
+      <c r="S29" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="T29" s="22"/>
+      <c r="T29" s="28"/>
       <c r="U29" s="8"/>
       <c r="V29" s="14"/>
       <c r="W29" s="11"/>
-      <c r="X29" s="21" t="s">
+      <c r="X29" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Y29" s="22"/>
+      <c r="Y29" s="28"/>
       <c r="Z29" s="1"/>
-      <c r="AA29" s="21" t="s">
+      <c r="AA29" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="AB29" s="22"/>
+      <c r="AB29" s="28"/>
       <c r="AC29" s="1"/>
-      <c r="AD29" s="21" t="s">
+      <c r="AD29" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AE29" s="22"/>
+      <c r="AE29" s="28"/>
       <c r="AF29" s="11"/>
       <c r="AG29" s="14"/>
       <c r="AH29" s="1"/>
@@ -52563,25 +52556,25 @@
       <c r="J30" s="1"/>
       <c r="K30" s="12"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="24"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="30"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="24"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="30"/>
       <c r="R30" s="1"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="24"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="30"/>
       <c r="U30" s="8"/>
       <c r="V30" s="14"/>
       <c r="W30" s="11"/>
-      <c r="X30" s="23"/>
-      <c r="Y30" s="24"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="30"/>
       <c r="Z30" s="1"/>
-      <c r="AA30" s="23"/>
-      <c r="AB30" s="24"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="30"/>
       <c r="AC30" s="1"/>
-      <c r="AD30" s="23"/>
-      <c r="AE30" s="24"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="30"/>
       <c r="AF30" s="11"/>
       <c r="AG30" s="14"/>
       <c r="AH30" s="1"/>
@@ -52628,37 +52621,37 @@
       <c r="J31" s="1"/>
       <c r="K31" s="12"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="25" t="s">
+      <c r="M31" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="N31" s="26"/>
+      <c r="N31" s="32"/>
       <c r="O31" s="1"/>
-      <c r="P31" s="25" t="s">
+      <c r="P31" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="Q31" s="26"/>
+      <c r="Q31" s="32"/>
       <c r="R31" s="1"/>
-      <c r="S31" s="25" t="s">
+      <c r="S31" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="T31" s="26"/>
+      <c r="T31" s="32"/>
       <c r="U31" s="8"/>
       <c r="V31" s="14"/>
       <c r="W31" s="11"/>
-      <c r="X31" s="25" t="s">
+      <c r="X31" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="Y31" s="26"/>
+      <c r="Y31" s="32"/>
       <c r="Z31" s="1"/>
-      <c r="AA31" s="25" t="s">
+      <c r="AA31" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="AB31" s="26"/>
+      <c r="AB31" s="32"/>
       <c r="AC31" s="1"/>
-      <c r="AD31" s="25" t="s">
+      <c r="AD31" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="AE31" s="26"/>
+      <c r="AE31" s="32"/>
       <c r="AF31" s="11"/>
       <c r="AG31" s="14"/>
       <c r="AH31" s="1"/>
@@ -53079,10 +53072,10 @@
     </row>
     <row r="37" spans="1:48">
       <c r="A37" s="1"/>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="22"/>
+      <c r="C37" s="28"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -53155,8 +53148,8 @@
     </row>
     <row r="38" spans="1:48">
       <c r="A38" s="1"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="24"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -53229,10 +53222,10 @@
     </row>
     <row r="39" spans="1:48">
       <c r="A39" s="1"/>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="26"/>
+      <c r="C39" s="32"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -53460,7 +53453,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="G42" s="8"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -53557,8 +53550,8 @@
         <v>133</v>
       </c>
       <c r="T43" s="4">
-        <f>resultats_9h_20h!N$107</f>
-        <v>15938</v>
+        <f>resultats_9h_21h!N$107</f>
+        <v>11683</v>
       </c>
       <c r="U43" s="1"/>
       <c r="V43" s="13"/>
@@ -54028,10 +54021,10 @@
       <c r="J51" s="1"/>
       <c r="K51" s="12"/>
       <c r="L51" s="1"/>
-      <c r="M51" s="21" t="s">
+      <c r="M51" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="N51" s="22"/>
+      <c r="N51" s="28"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
@@ -54041,10 +54034,10 @@
       <c r="U51" s="1"/>
       <c r="V51" s="13"/>
       <c r="W51" s="10"/>
-      <c r="X51" s="21" t="s">
+      <c r="X51" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="Y51" s="22"/>
+      <c r="Y51" s="28"/>
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
@@ -54082,8 +54075,8 @@
       <c r="J52" s="1"/>
       <c r="K52" s="12"/>
       <c r="L52" s="1"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="24"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="30"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
@@ -54093,8 +54086,8 @@
       <c r="U52" s="1"/>
       <c r="V52" s="13"/>
       <c r="W52" s="10"/>
-      <c r="X52" s="23"/>
-      <c r="Y52" s="24"/>
+      <c r="X52" s="29"/>
+      <c r="Y52" s="30"/>
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
@@ -54139,10 +54132,10 @@
       <c r="J53" s="1"/>
       <c r="K53" s="12"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="25" t="s">
+      <c r="M53" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="N53" s="26"/>
+      <c r="N53" s="32"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
@@ -54152,10 +54145,10 @@
       <c r="U53" s="1"/>
       <c r="V53" s="13"/>
       <c r="W53" s="10"/>
-      <c r="X53" s="25" t="s">
+      <c r="X53" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="Y53" s="26"/>
+      <c r="Y53" s="32"/>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
@@ -54175,13 +54168,13 @@
       <c r="AP53" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AQ53" s="30" t="s">
+      <c r="AQ53" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AR53" s="30">
+      <c r="AR53" s="21">
         <v>21474</v>
       </c>
-      <c r="AS53" s="30">
+      <c r="AS53" s="21">
         <v>17049</v>
       </c>
       <c r="AT53" s="1"/>
@@ -54240,13 +54233,13 @@
       <c r="AP54" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="AQ54" s="30" t="s">
+      <c r="AQ54" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AR54" s="30">
+      <c r="AR54" s="21">
         <v>17746</v>
       </c>
-      <c r="AS54" s="30">
+      <c r="AS54" s="21">
         <v>17746</v>
       </c>
       <c r="AT54" s="1"/>
@@ -54313,13 +54306,13 @@
       <c r="AP55" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AQ55" s="30" t="s">
+      <c r="AQ55" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AR55" s="30">
+      <c r="AR55" s="21">
         <v>18474</v>
       </c>
-      <c r="AS55" s="30">
+      <c r="AS55" s="21">
         <v>17568</v>
       </c>
       <c r="AT55" s="1"/>
@@ -54349,13 +54342,13 @@
       <c r="Q56" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="R56" s="30" t="s">
+      <c r="R56" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="S56" s="30">
+      <c r="S56" s="21">
         <v>21474</v>
       </c>
-      <c r="T56" s="30">
+      <c r="T56" s="21">
         <v>17049</v>
       </c>
       <c r="U56" s="1"/>
@@ -54386,13 +54379,13 @@
       <c r="AP56" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AQ56" s="30" t="s">
+      <c r="AQ56" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AR56" s="30">
+      <c r="AR56" s="21">
         <v>20570</v>
       </c>
-      <c r="AS56" s="30">
+      <c r="AS56" s="21">
         <v>14074</v>
       </c>
       <c r="AT56" s="1"/>
@@ -54422,13 +54415,13 @@
       <c r="Q57" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="R57" s="30" t="s">
+      <c r="R57" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="S57" s="30">
+      <c r="S57" s="21">
         <v>17746</v>
       </c>
-      <c r="T57" s="30">
+      <c r="T57" s="21">
         <v>17746</v>
       </c>
       <c r="U57" s="1"/>
@@ -54459,13 +54452,13 @@
       <c r="AP57" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AQ57" s="30" t="s">
+      <c r="AQ57" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="AR57" s="30">
+      <c r="AR57" s="21">
         <v>23750</v>
       </c>
-      <c r="AS57" s="30">
+      <c r="AS57" s="21">
         <v>21674</v>
       </c>
       <c r="AT57" s="1"/>
@@ -54495,13 +54488,13 @@
       <c r="Q58" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="R58" s="30" t="s">
+      <c r="R58" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S58" s="30">
+      <c r="S58" s="21">
         <v>18474</v>
       </c>
-      <c r="T58" s="30">
+      <c r="T58" s="21">
         <v>17568</v>
       </c>
       <c r="U58" s="1"/>
@@ -54532,13 +54525,13 @@
       <c r="AP58" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AQ58" s="30" t="s">
+      <c r="AQ58" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="AR58" s="30">
+      <c r="AR58" s="21">
         <v>16933</v>
       </c>
-      <c r="AS58" s="30">
+      <c r="AS58" s="21">
         <v>13138</v>
       </c>
       <c r="AT58" s="1"/>
@@ -54568,13 +54561,13 @@
       <c r="Q59" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="R59" s="30" t="s">
+      <c r="R59" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="S59" s="30">
+      <c r="S59" s="21">
         <v>20570</v>
       </c>
-      <c r="T59" s="30">
+      <c r="T59" s="21">
         <v>14074</v>
       </c>
       <c r="U59" s="1"/>
@@ -54605,13 +54598,13 @@
       <c r="AP59" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="AQ59" s="30" t="s">
+      <c r="AQ59" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AR59" s="30">
+      <c r="AR59" s="21">
         <v>20825</v>
       </c>
-      <c r="AS59" s="30">
+      <c r="AS59" s="21">
         <v>20825</v>
       </c>
       <c r="AT59" s="1"/>
@@ -54641,13 +54634,13 @@
       <c r="Q60" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="R60" s="30" t="s">
+      <c r="R60" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="S60" s="30">
+      <c r="S60" s="21">
         <v>23750</v>
       </c>
-      <c r="T60" s="30">
+      <c r="T60" s="21">
         <v>21674</v>
       </c>
       <c r="U60" s="1"/>
@@ -54692,7 +54685,7 @@
         <v>17698</v>
       </c>
       <c r="AU60" s="1"/>
-      <c r="AV60" s="35"/>
+      <c r="AV60" s="26"/>
     </row>
     <row r="61" spans="1:48" ht="20">
       <c r="A61" s="1"/>
@@ -54718,13 +54711,13 @@
       <c r="Q61" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="R61" s="30" t="s">
+      <c r="R61" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="S61" s="30">
+      <c r="S61" s="21">
         <v>16933</v>
       </c>
-      <c r="T61" s="30">
+      <c r="T61" s="21">
         <v>13138</v>
       </c>
       <c r="U61" s="1"/>
@@ -54786,13 +54779,13 @@
       <c r="Q62" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="R62" s="30" t="s">
+      <c r="R62" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="S62" s="30">
+      <c r="S62" s="21">
         <v>20825</v>
       </c>
-      <c r="T62" s="30">
+      <c r="T62" s="21">
         <v>20825</v>
       </c>
       <c r="U62" s="1"/>
@@ -55375,13 +55368,27 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="P29:Q30"/>
-    <mergeCell ref="S29:T30"/>
-    <mergeCell ref="B37:C38"/>
-    <mergeCell ref="M51:N52"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="X51:Y52"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="X29:Y30"/>
+    <mergeCell ref="AA29:AB30"/>
+    <mergeCell ref="AD29:AE30"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="W1:AF3"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="AA7:AB8"/>
+    <mergeCell ref="AD7:AE8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="M29:N30"/>
+    <mergeCell ref="H24:I24"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="L1:U3"/>
     <mergeCell ref="S9:T9"/>
@@ -55398,31 +55405,16 @@
     <mergeCell ref="M7:N8"/>
     <mergeCell ref="P7:Q8"/>
     <mergeCell ref="H22:I23"/>
+    <mergeCell ref="P29:Q30"/>
+    <mergeCell ref="S29:T30"/>
+    <mergeCell ref="B37:C38"/>
+    <mergeCell ref="M51:N52"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="M31:N31"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="M29:N30"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="W1:AF3"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="AA7:AB8"/>
-    <mergeCell ref="AD7:AE8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="X51:Y52"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="X29:Y30"/>
-    <mergeCell ref="AA29:AB30"/>
-    <mergeCell ref="AD29:AE30"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="AD31:AE31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
